--- a/cracking_code.xlsx
+++ b/cracking_code.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5FCD68-71AA-4091-89BB-D6914192C49D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E38405-D553-42CE-8FFC-F909863B3E10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="set1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -37,15 +37,111 @@
   </si>
   <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>Reverse of a string in Java?</t>
+  </si>
+  <si>
+    <t>Reverse of the words of a string in Java?</t>
+  </si>
+  <si>
+    <t>Reverse of middle words of a string?</t>
+  </si>
+  <si>
+    <t>Reverse of an Array ?</t>
+  </si>
+  <si>
+    <t>Convert number to words?</t>
+  </si>
+  <si>
+    <t>FizzBuzz Program</t>
+  </si>
+  <si>
+    <t>Product of all subarrays of an array</t>
+  </si>
+  <si>
+    <t>Multiplication of matrix</t>
+  </si>
+  <si>
+    <t>2*2 matrix</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>Pattern programs</t>
+  </si>
+  <si>
+    <t>Print 1 to 10 without using loops?</t>
+  </si>
+  <si>
+    <t>Basic java programs to check even or odd?</t>
+  </si>
+  <si>
+    <t>Java program to convert decimal to binary?</t>
+  </si>
+  <si>
+    <t>Swap two numbers without using third variable in java?</t>
+  </si>
+  <si>
+    <t>Find sum of digits in Java?</t>
+  </si>
+  <si>
+    <t>String Reverse without using String API?</t>
+  </si>
+  <si>
+    <t>Check String is palindrome or not?</t>
+  </si>
+  <si>
+    <t>Check Armstrong number or not?</t>
+  </si>
+  <si>
+    <t>Write a Java Program to reverse a string without using String inbuilt function.</t>
+  </si>
+  <si>
+    <t>Birthday Gift - last toy is defect, who gets it when random kid is selected out for distribution from kid with numbers 1 2 3 4 5 6 7 8 9 10</t>
+  </si>
+  <si>
+    <t>Array burst</t>
+  </si>
+  <si>
+    <t>String Encoding Decoding</t>
+  </si>
+  <si>
+    <t>Collapse string</t>
+  </si>
+  <si>
+    <t>Sum of odd and even array items</t>
+  </si>
+  <si>
+    <t>java program to convert number into words</t>
+  </si>
+  <si>
+    <t>Left Rotation Array</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -72,8 +168,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,81 +457,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.1796875" customWidth="1"/>
-    <col min="2" max="2" width="33.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="64" customWidth="1"/>
     <col min="4" max="4" width="123.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/cracking_code.xlsx
+++ b/cracking_code.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E38405-D553-42CE-8FFC-F909863B3E10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43387F39-454C-4FF6-A143-31FC64A2E281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="set1" sheetId="1" r:id="rId1"/>
+    <sheet name="others" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>#</t>
   </si>
@@ -118,13 +119,25 @@
   </si>
   <si>
     <t>Left Rotation Array</t>
+  </si>
+  <si>
+    <t>https://www.javatpoint.com/java-programs</t>
+  </si>
+  <si>
+    <t>java substring comparion</t>
+  </si>
+  <si>
+    <t>ArrayList index problem - ide- ArrayListSample</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/interview/interview-preparation-kit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +160,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -165,10 +186,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -177,8 +199,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -704,11 +728,17 @@
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
@@ -718,4 +748,36 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B5692D-76EA-4DDE-A0B9-D08426BB8956}">
+  <dimension ref="C2:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="97.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{CD0590AA-A5A1-463E-91B0-5A9009DC5FBD}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{D63CFBBA-6778-4289-9199-4AC6470D8AE4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cracking_code.xlsx
+++ b/cracking_code.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43387F39-454C-4FF6-A143-31FC64A2E281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="set1" sheetId="1" r:id="rId1"/>
     <sheet name="others" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>#</t>
   </si>
@@ -131,13 +125,31 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/interview/interview-preparation-kit</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/java-arraylist/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/domains/java?filters%5Bstatus%5D%5B%5D=unsolved&amp;badge_type=java</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/dashboard</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/printing-frequency-of-each-character-just-after-its-consecutive-occurrences/</t>
+  </si>
+  <si>
+    <t>https://www.java67.com</t>
+  </si>
+  <si>
+    <t>https://www.java67.com/2015/06/20-java-arraylist-interview-questions.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,7 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -200,6 +212,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -261,7 +274,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -296,7 +309,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -473,28 +486,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="64" customWidth="1"/>
-    <col min="4" max="4" width="123.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="79.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="123.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -516,7 +530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -524,7 +538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -532,7 +546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -540,7 +554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -548,7 +562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -556,7 +570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -564,7 +578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -572,7 +586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -580,7 +594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -588,7 +602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -596,7 +610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -604,7 +618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -612,7 +626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -620,7 +634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -628,7 +642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -636,7 +650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -644,7 +658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -652,7 +666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -660,7 +674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -668,7 +682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -676,7 +690,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="30">
       <c r="A23">
         <v>22</v>
       </c>
@@ -684,7 +698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -692,7 +706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -700,7 +714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -708,7 +722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -716,7 +730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -724,59 +738,90 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D29" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D30" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D29" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B5692D-76EA-4DDE-A0B9-D08426BB8956}">
-  <dimension ref="C2:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="97.08984375" customWidth="1"/>
+    <col min="3" max="3" width="101.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:3">
       <c r="C2" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:3">
       <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="6" spans="3:3" ht="15.75">
+      <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{CD0590AA-A5A1-463E-91B0-5A9009DC5FBD}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{D63CFBBA-6778-4289-9199-4AC6470D8AE4}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
